--- a/presentaciones.xlsx
+++ b/presentaciones.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2f577dda2fcbe77/Documentos/LAB-MAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{104DBCFA-5C40-42D3-B1E5-2565872915EA}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{9BA971E5-D8DE-44A2-9871-2F86DB38734B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35FC1DF-6F84-4966-98A2-EC13AEA4ED5A}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Estudiante</t>
   </si>
@@ -162,6 +165,21 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/pii/S1413355524004891</t>
+  </si>
+  <si>
+    <t>Vicente Pérez</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence in Surgery: Promises and Perils</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC5995666/pdf/nihms951789.pdf</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -237,6 +255,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,21 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="21.83984375" customWidth="1"/>
-    <col min="2" max="2" width="20.20703125" customWidth="1"/>
-    <col min="3" max="3" width="146" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.15625" customWidth="1"/>
+    <col min="3" max="3" width="70.26171875" customWidth="1"/>
     <col min="4" max="4" width="69.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,173 +551,214 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="s">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{B7E3A752-5F31-4919-A1A0-0AC4800FC8D6}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{16F78ED4-42F8-474C-82FC-C92A8570347D}"/>
-    <hyperlink ref="D2" r:id="rId5" xr:uid="{1AEAE276-1898-42EE-A98C-09308112D346}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{A2534457-280D-460F-A7FC-7942E855493C}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{B7E3A752-5F31-4919-A1A0-0AC4800FC8D6}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{4DBC0373-8C24-EB4C-AA66-4064E1645F09}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{16F78ED4-42F8-474C-82FC-C92A8570347D}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{1AEAE276-1898-42EE-A98C-09308112D346}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{779D435A-A37E-4505-8CD9-B49F5938BA6C}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{CD692FFA-FA51-4693-AF71-FB5BAC762DF4}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{D32D4B97-4949-4A75-9A27-385352E95A71}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{8780AE28-211A-4BEB-A7D9-1E5BFB2F713D}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{E5F03273-48E8-4989-88FD-1AD38EB07FF3}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{4B279132-1C7B-46D3-9084-B82DABA5013B}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{762C660E-5C0B-4A8B-BCFF-AA826BEB7BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
